--- a/output_information_invoice.xlsx
+++ b/output_information_invoice.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>STT</t>
   </si>
@@ -90,7 +90,7 @@
     <t>r46jvxmvxg</t>
   </si>
   <si>
-    <t>Không tải được</t>
+    <t>Fail</t>
   </si>
   <si>
     <t>0304308445</t>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>199-205 Nguyễn Thái Học, Phường Phạm Ngũ Lão, Quận 01, Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>nan</t>
   </si>
   <si>
     <t>B1HEIRR8N0WP</t>
@@ -220,16 +217,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -272,20 +261,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,387 +568,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="45.5546875" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="61.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="67.5546875" customWidth="1"/>
-    <col min="11" max="11" width="45.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="90.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="80" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="94.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="O3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="O9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
